--- a/data/cleaned_clustering_data.xlsx
+++ b/data/cleaned_clustering_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AI-Advisor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97050816-1201-4524-9324-6215D74A91A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F76D0-329A-4760-AC7F-9C89FECCB61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="435" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
